--- a/mbs-EP-v.1.0.2/Excel Files/flyball_governor/flyball_governor_damper_vel.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/flyball_governor/flyball_governor_damper_vel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62C52F3-7BF9-4543-8B2A-BA08765A4C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3D609D-1D1F-45FB-9C9B-13FCD4C6CBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="2850" windowWidth="16200" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,6 +1324,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,21 +1438,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,55 +1459,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,15 +1498,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,71 +1513,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,44 +2035,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="J2" s="107" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="J2" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="46">
         <v>10</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="98" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="91"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="107"/>
       <c r="P3" s="40" t="s">
         <v>156</v>
       </c>
@@ -2075,10 +2081,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="46">
         <v>1E-3</v>
       </c>
@@ -2091,14 +2097,14 @@
       <c r="K4" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="112"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="39" t="s">
         <v>127</v>
       </c>
       <c r="N4" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="92"/>
+      <c r="O4" s="108"/>
       <c r="P4" s="40" t="s">
         <v>157</v>
       </c>
@@ -2107,10 +2113,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="97"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="46" t="s">
         <v>80</v>
       </c>
@@ -2123,14 +2129,14 @@
       <c r="K5" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="112"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="92"/>
+      <c r="O5" s="108"/>
       <c r="P5" s="40" t="s">
         <v>158</v>
       </c>
@@ -2139,10 +2145,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="46" t="s">
         <v>3</v>
       </c>
@@ -2155,14 +2161,14 @@
       <c r="K6" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="112"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="40" t="s">
         <v>129</v>
       </c>
       <c r="N6" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="92"/>
+      <c r="O6" s="108"/>
       <c r="P6" s="40" t="s">
         <v>162</v>
       </c>
@@ -2171,10 +2177,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="46">
         <v>-9806.5</v>
       </c>
@@ -2187,14 +2193,14 @@
       <c r="K7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="112"/>
+      <c r="L7" s="84"/>
       <c r="M7" s="40" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="92"/>
+      <c r="O7" s="108"/>
       <c r="P7" s="40" t="s">
         <v>161</v>
       </c>
@@ -2203,10 +2209,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="46" t="s">
         <v>125</v>
       </c>
@@ -2219,14 +2225,14 @@
       <c r="K8" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="112"/>
+      <c r="L8" s="84"/>
       <c r="M8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="92"/>
+      <c r="O8" s="108"/>
       <c r="P8" s="40" t="s">
         <v>165</v>
       </c>
@@ -2235,10 +2241,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="46"/>
       <c r="E9" s="47" t="s">
         <v>119</v>
@@ -2249,14 +2255,14 @@
       <c r="K9" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="112"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="92"/>
+      <c r="O9" s="108"/>
       <c r="P9" s="40" t="s">
         <v>166</v>
       </c>
@@ -2271,14 +2277,14 @@
       <c r="K10" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="112"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="92"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="45" t="s">
         <v>167</v>
       </c>
@@ -2289,14 +2295,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="49"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="112"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="40" t="s">
         <v>131</v>
       </c>
       <c r="N11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="92"/>
+      <c r="O11" s="108"/>
       <c r="P11" s="45" t="s">
         <v>168</v>
       </c>
@@ -2305,25 +2311,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="J12" s="51"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="112"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="40" t="s">
         <v>132</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="92"/>
+      <c r="O12" s="108"/>
       <c r="P12" s="40" t="s">
         <v>173</v>
       </c>
@@ -2332,27 +2338,27 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="95"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
       <c r="J13" s="51"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="112"/>
+      <c r="L13" s="84"/>
       <c r="M13" s="40" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="92"/>
+      <c r="O13" s="108"/>
       <c r="P13" s="45" t="s">
         <v>174</v>
       </c>
@@ -2361,27 +2367,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="95"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
       <c r="J14" s="53"/>
       <c r="K14" s="54"/>
-      <c r="L14" s="112"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="40" t="s">
         <v>133</v>
       </c>
       <c r="N14" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="92"/>
+      <c r="O14" s="108"/>
       <c r="P14" s="45" t="s">
         <v>175</v>
       </c>
@@ -2390,31 +2396,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="95"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="63" t="s">
         <v>234</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="J15" s="98" t="s">
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="J15" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="112"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="84"/>
       <c r="M15" s="40" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="108"/>
       <c r="P15" s="45" t="s">
         <v>176</v>
       </c>
@@ -2423,31 +2429,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="63"/>
       <c r="E16" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
       <c r="J16" s="40" t="s">
         <v>92</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="112"/>
+      <c r="L16" s="84"/>
       <c r="M16" s="40" t="s">
         <v>134</v>
       </c>
       <c r="N16" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="108"/>
       <c r="P16" s="40" t="s">
         <v>181</v>
       </c>
@@ -2456,31 +2462,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="63" t="s">
         <v>234</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
       <c r="J17" s="40" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="112"/>
-      <c r="M17" s="98" t="s">
+      <c r="L17" s="84"/>
+      <c r="M17" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="92"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="45" t="s">
         <v>182</v>
       </c>
@@ -2489,33 +2495,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="94"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="63" t="s">
         <v>234</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
       <c r="J18" s="40" t="s">
         <v>93</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="112"/>
+      <c r="L18" s="84"/>
       <c r="M18" s="48" t="s">
         <v>155</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="92"/>
+      <c r="O18" s="108"/>
       <c r="P18" s="45" t="s">
         <v>183</v>
       </c>
@@ -2524,31 +2530,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="94"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="63"/>
       <c r="E19" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
       <c r="J19" s="40" t="s">
         <v>94</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="112"/>
+      <c r="L19" s="84"/>
       <c r="M19" s="41" t="s">
         <v>147</v>
       </c>
       <c r="N19" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="92"/>
+      <c r="O19" s="108"/>
       <c r="P19" s="45" t="s">
         <v>184</v>
       </c>
@@ -2557,33 +2563,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="43" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
       <c r="J20" s="40" t="s">
         <v>100</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="112"/>
+      <c r="L20" s="84"/>
       <c r="M20" s="41" t="s">
         <v>148</v>
       </c>
       <c r="N20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="92"/>
+      <c r="O20" s="108"/>
       <c r="P20" s="40" t="s">
         <v>189</v>
       </c>
@@ -2592,31 +2598,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="44"/>
       <c r="E21" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
       <c r="J21" s="40" t="s">
         <v>95</v>
       </c>
       <c r="K21" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="L21" s="112"/>
+      <c r="L21" s="84"/>
       <c r="M21" s="41" t="s">
         <v>149</v>
       </c>
       <c r="N21" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="92"/>
+      <c r="O21" s="108"/>
       <c r="P21" s="45" t="s">
         <v>190</v>
       </c>
@@ -2625,35 +2631,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="63">
         <v>3</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="E22" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
       <c r="J22" s="30" t="s">
         <v>106</v>
       </c>
       <c r="K22" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="113"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="41" t="s">
         <v>150</v>
       </c>
       <c r="N22" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="92"/>
+      <c r="O22" s="108"/>
       <c r="P22" s="45" t="s">
         <v>191</v>
       </c>
@@ -2662,19 +2668,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="63"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="92"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="108"/>
       <c r="P23" s="45" t="s">
         <v>192</v>
       </c>
@@ -2683,19 +2689,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="63"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="92"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="108"/>
       <c r="P24" s="30" t="s">
         <v>198</v>
       </c>
@@ -2704,19 +2710,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="63"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="92"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="108"/>
       <c r="P25" s="30" t="s">
         <v>202</v>
       </c>
@@ -2725,19 +2731,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="63"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="92"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="108"/>
       <c r="P26" s="30" t="s">
         <v>203</v>
       </c>
@@ -2746,19 +2752,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="63"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="92"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="108"/>
       <c r="P27" s="30" t="s">
         <v>204</v>
       </c>
@@ -2767,19 +2773,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="63"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="92"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="108"/>
       <c r="P28" s="30" t="s">
         <v>206</v>
       </c>
@@ -2788,19 +2794,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="63"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="92"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="108"/>
       <c r="P29" s="30" t="s">
         <v>205</v>
       </c>
@@ -2809,12 +2815,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="92"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="108"/>
       <c r="P30" s="30" t="s">
         <v>207</v>
       </c>
@@ -2823,12 +2829,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="92"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="108"/>
       <c r="P31" s="30" t="s">
         <v>208</v>
       </c>
@@ -2837,12 +2843,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="92"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="108"/>
       <c r="P32" s="30" t="s">
         <v>209</v>
       </c>
@@ -2851,12 +2857,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="92"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="108"/>
       <c r="P33" s="30" t="s">
         <v>210</v>
       </c>
@@ -2865,12 +2871,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="92"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="108"/>
       <c r="P34" s="30" t="s">
         <v>211</v>
       </c>
@@ -2879,12 +2885,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="92"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="108"/>
       <c r="P35" s="30" t="s">
         <v>212</v>
       </c>
@@ -2893,12 +2899,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="85"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="92"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="108"/>
       <c r="P36" s="30" t="s">
         <v>221</v>
       </c>
@@ -2907,12 +2913,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="85"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="92"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="108"/>
       <c r="P37" s="30" t="s">
         <v>222</v>
       </c>
@@ -2921,12 +2927,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="92"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="108"/>
       <c r="P38" s="30" t="s">
         <v>223</v>
       </c>
@@ -2944,6 +2950,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F22:H29"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2960,20 +2980,6 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:H29"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2986,7 +2992,7 @@
   <dimension ref="A1:AK197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="Y7" sqref="Y7:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,57 +3011,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="100"/>
-      <c r="B1" s="100"/>
-      <c r="C1" s="95" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95" t="s">
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="119" t="s">
         <v>73</v>
       </c>
@@ -3071,16 +3077,16 @@
       </c>
       <c r="J2" s="119"/>
       <c r="K2" s="119"/>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95" t="s">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
       <c r="R2" s="120" t="s">
         <v>82</v>
       </c>
@@ -3092,31 +3098,31 @@
       </c>
       <c r="U2" s="119"/>
       <c r="V2" s="119"/>
-      <c r="W2" s="95" t="s">
+      <c r="W2" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="93" t="s">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="95" t="s">
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95" t="s">
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95" t="s">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3644,8 +3650,8 @@
       <c r="X7" s="28">
         <v>0</v>
       </c>
-      <c r="Y7" s="28">
-        <v>5265.4970999999996</v>
+      <c r="Y7" s="158">
+        <v>5268.8906999999999</v>
       </c>
       <c r="Z7" s="28">
         <v>0</v>
@@ -3760,8 +3766,8 @@
       <c r="X8" s="58">
         <v>0</v>
       </c>
-      <c r="Y8" s="58">
-        <v>-5265.4970999999996</v>
+      <c r="Y8" s="73">
+        <v>-5268.8906999999999</v>
       </c>
       <c r="Z8" s="58">
         <v>0</v>
@@ -6856,6 +6862,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6869,12 +6881,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7043,16 +7049,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="127" t="s">
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7133,16 +7139,16 @@
       </c>
       <c r="G9" s="123"/>
       <c r="H9" s="123"/>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121" t="s">
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7238,11 +7244,11 @@
       </c>
       <c r="G13" s="123"/>
       <c r="H13" s="123"/>
-      <c r="I13" s="121" t="s">
+      <c r="I13" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7426,11 +7432,11 @@
       </c>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
-      <c r="I19" s="121" t="s">
+      <c r="I19" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7509,11 +7515,11 @@
       </c>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
-      <c r="I23" s="121" t="s">
+      <c r="I23" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7587,16 +7593,16 @@
       </c>
       <c r="G27" s="123"/>
       <c r="H27" s="123"/>
-      <c r="I27" s="121" t="s">
+      <c r="I27" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121" t="s">
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7637,26 +7643,26 @@
       <c r="E31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="127" t="s">
+      <c r="F31" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="127" t="s">
+      <c r="G31" s="126"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="121" t="s">
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121" t="s">
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="124"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7837,15 +7843,15 @@
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="124" t="s">
+      <c r="A42" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="126"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="130"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7865,11 +7871,11 @@
       <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="121" t="s">
+      <c r="E43" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -8002,21 +8008,6 @@
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -8033,6 +8024,21 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8072,21 +8078,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="K1" s="131"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -8104,11 +8110,11 @@
       <c r="E2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="65" t="s">
         <v>246</v>
       </c>
@@ -8167,27 +8173,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="122"/>
@@ -8203,22 +8209,22 @@
       <c r="K2" s="122"/>
       <c r="L2" s="122"/>
       <c r="M2" s="122"/>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
-      <c r="AB2" s="147" t="s">
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
+      <c r="AB2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="144"/>
     </row>
     <row r="3" spans="1:33" s="32" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
@@ -8236,16 +8242,16 @@
       <c r="E3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="139" t="s">
+      <c r="G3" s="154"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="140"/>
-      <c r="K3" s="141"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="153"/>
       <c r="L3" s="60" t="s">
         <v>242</v>
       </c>
@@ -8264,16 +8270,16 @@
       <c r="Q3" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="R3" s="138" t="s">
+      <c r="R3" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="138"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="152"/>
+      <c r="S3" s="155"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -8293,12 +8299,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="152"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="147"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
@@ -8320,48 +8326,48 @@
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
-      <c r="AB5" s="150"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="152"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="147"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="151"/>
-      <c r="AG6" s="152"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="147"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="152"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="147"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="122"/>
@@ -8377,19 +8383,19 @@
       <c r="K8" s="122"/>
       <c r="L8" s="122"/>
       <c r="M8" s="122"/>
-      <c r="N8" s="142" t="s">
+      <c r="N8" s="156" t="s">
         <v>250</v>
       </c>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="AB8" s="150"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="152"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="147"/>
     </row>
     <row r="9" spans="1:33" s="32" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
@@ -8407,16 +8413,16 @@
       <c r="E9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="135" t="s">
+      <c r="F9" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="139" t="s">
+      <c r="G9" s="154"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="153"/>
       <c r="L9" s="35" t="s">
         <v>110</v>
       </c>
@@ -8432,16 +8438,16 @@
       <c r="P9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="135" t="s">
+      <c r="Q9" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="137"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="151"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="152"/>
+      <c r="R9" s="141"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="147"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -8477,12 +8483,12 @@
         <v>40</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="152"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="146"/>
+      <c r="AF10" s="146"/>
+      <c r="AG10" s="147"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -8517,85 +8523,85 @@
       <c r="L11" s="69">
         <v>40</v>
       </c>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="152"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="146"/>
+      <c r="AE11" s="146"/>
+      <c r="AF11" s="146"/>
+      <c r="AG11" s="147"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="42"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="152"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="146"/>
+      <c r="AE12" s="146"/>
+      <c r="AF12" s="146"/>
+      <c r="AG12" s="147"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="AB13" s="153"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="154"/>
-      <c r="AF13" s="154"/>
-      <c r="AG13" s="155"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="150"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="132" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="133" t="s">
         <v>251</v>
       </c>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="135"/>
       <c r="Z14" s="70"/>
       <c r="AA14" s="70"/>
     </row>
@@ -8615,26 +8621,26 @@
       <c r="E15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F15" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="139" t="s">
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="144" t="s">
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="M15" s="145"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="144" t="s">
+      <c r="M15" s="138"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="146"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="139"/>
       <c r="R15" s="35" t="s">
         <v>72</v>
       </c>
@@ -8653,10 +8659,10 @@
       <c r="W15" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="X15" s="135" t="s">
+      <c r="X15" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="137"/>
+      <c r="Y15" s="141"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
@@ -8703,25 +8709,25 @@
       <c r="T17" s="42"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="71"/>
@@ -8735,14 +8741,14 @@
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
-      <c r="L19" s="132" t="s">
+      <c r="L19" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="135"/>
     </row>
     <row r="20" spans="1:20" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
@@ -8760,16 +8766,16 @@
       <c r="E20" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="144" t="s">
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="139"/>
       <c r="L20" s="67" t="s">
         <v>111</v>
       </c>
@@ -8782,10 +8788,10 @@
       <c r="O20" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="135" t="s">
+      <c r="P20" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="Q20" s="137"/>
+      <c r="Q20" s="141"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -8834,6 +8840,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A7:R7"/>
     <mergeCell ref="L19:Q19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
@@ -8847,19 +8866,6 @@
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="A7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8887,16 +8893,16 @@
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="I1" s="108" t="s">
+      <c r="G1" s="80"/>
+      <c r="I1" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -8914,12 +8920,12 @@
       <c r="G2" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="156" t="s">
+      <c r="I2" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
@@ -8931,10 +8937,10 @@
       <c r="G3" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
@@ -8946,10 +8952,10 @@
       <c r="G4" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
@@ -8961,10 +8967,10 @@
       <c r="G5" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
@@ -8976,10 +8982,10 @@
       <c r="G6" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
